--- a/小苹果电调BOM.xlsx
+++ b/小苹果电调BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>小苹果电调BOM</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,10 +79,6 @@
   </si>
   <si>
     <t>1206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-100uF电解电容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -199,7 +195,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -297,13 +293,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -337,6 +344,27 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -346,25 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -668,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -680,18 +690,18 @@
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="11.25" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="6" width="9" style="20"/>
+    <col min="5" max="6" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -706,10 +716,10 @@
       <c r="D2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -718,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="7">
         <v>1</v>
       </c>
-      <c r="E3" s="16">
-        <v>1</v>
-      </c>
-      <c r="F3" s="17">
+      <c r="E3" s="13">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14">
         <f t="shared" ref="F3:F4" si="0">D3*E3</f>
         <v>1</v>
       </c>
@@ -737,16 +747,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="7">
         <v>1</v>
       </c>
-      <c r="E4" s="16">
-        <v>1</v>
-      </c>
-      <c r="F4" s="17">
+      <c r="E4" s="13">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -764,10 +774,10 @@
       <c r="D5" s="7">
         <v>1</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="13">
         <v>6.8</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="14">
         <f>D5*E5</f>
         <v>6.8</v>
       </c>
@@ -785,10 +795,10 @@
       <c r="D6" s="7">
         <v>20</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="13">
         <v>0.02</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="14">
         <f t="shared" ref="F6" si="1">D6*E6</f>
         <v>0.4</v>
       </c>
@@ -806,11 +816,11 @@
       <c r="D7" s="7">
         <v>16</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="13">
         <v>0.02</v>
       </c>
-      <c r="F7" s="17">
-        <f t="shared" ref="F6:F20" si="2">D7*E7</f>
+      <c r="F7" s="14">
+        <f t="shared" ref="F7:F19" si="2">D7*E7</f>
         <v>0.32</v>
       </c>
     </row>
@@ -819,7 +829,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>5</v>
@@ -827,10 +837,10 @@
       <c r="D8" s="7">
         <v>1</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="13">
         <v>0.02</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="14">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
@@ -840,20 +850,20 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="7">
-        <v>12</v>
-      </c>
-      <c r="E9" s="16">
+        <v>6</v>
+      </c>
+      <c r="E9" s="13">
         <v>0.02</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="14">
         <f t="shared" si="2"/>
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -869,10 +879,10 @@
       <c r="D10" s="7">
         <v>4</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="13">
         <v>0.02</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="14">
         <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
@@ -890,10 +900,10 @@
       <c r="D11" s="7">
         <v>2</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="13">
         <v>0.12</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="14">
         <f t="shared" si="2"/>
         <v>0.24</v>
       </c>
@@ -903,62 +913,62 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="16">
+        <v>2</v>
+      </c>
+      <c r="E12" s="13">
         <v>0.12</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="14">
         <f t="shared" si="2"/>
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>27</v>
+      <c r="B13" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>2</v>
-      </c>
-      <c r="E13" s="16">
-        <v>0.12</v>
-      </c>
-      <c r="F13" s="17">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="F13" s="14">
         <f t="shared" si="2"/>
-        <v>0.24</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="D14" s="7">
         <v>1</v>
       </c>
-      <c r="E14" s="16">
-        <v>0.85</v>
-      </c>
-      <c r="F14" s="17">
+      <c r="E14" s="13">
+        <v>0.24</v>
+      </c>
+      <c r="F14" s="14">
         <f t="shared" si="2"/>
-        <v>0.85</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -966,18 +976,18 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="16">
-        <v>0.24</v>
-      </c>
-      <c r="F15" s="17">
+        <v>6</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="F15" s="14">
         <f t="shared" si="2"/>
         <v>0.24</v>
       </c>
@@ -987,20 +997,20 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D16" s="7">
-        <v>6</v>
-      </c>
-      <c r="E16" s="16">
-        <v>0.04</v>
-      </c>
-      <c r="F16" s="17">
+        <v>1</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="14">
         <f t="shared" si="2"/>
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -1011,15 +1021,15 @@
         <v>24</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
         <v>1</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="13">
         <v>0.1</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="14">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
@@ -1029,71 +1039,50 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="F18" s="17">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="7">
         <v>3</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E18" s="13">
         <v>0.76</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F18" s="14">
         <f t="shared" si="2"/>
         <v>2.2800000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="8">
+    <row r="19" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="8">
         <v>3</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E19" s="15">
         <v>0.68</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F19" s="16">
         <f t="shared" si="2"/>
         <v>2.04</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="20">
-        <f>SUM(F3:F21)</f>
-        <v>16.309999999999999</v>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="17">
+        <f>SUM(F3:F20)</f>
+        <v>16.07</v>
       </c>
     </row>
   </sheetData>
